--- a/qwer.xlsx
+++ b/qwer.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="CC 200+" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="phone book" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,59 +441,104 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>1</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>телефон</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>имя</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>возраст</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>dssds</t>
+          <t>345646</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Petro</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>dfdfs</t>
+          <t>546768</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Slava</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>33</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sdjnsv</t>
+          <t>123533</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>sdsdf sdfsdf</t>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>456465</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sergey</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>43</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sdfsdf</t>
+          <t>123344</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sdfsfsd</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>afdsf</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>asaffdssdf</t>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>76</t>
         </is>
       </c>
     </row>
